--- a/Pck&Dat_structure.xlsx
+++ b/Pck&Dat_structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Team Drives\[ Positive Computing ]\#Implementation by Kevin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\New folder\SAST_Packet_Data_Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF7A1A-4C52-40D8-8DA0-C4530F85FC43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B44FCC-6C15-4E7F-BB3D-EF250BAFA2CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" activeTab="1" xr2:uid="{FB7FCD3F-45BE-4329-BB36-20021F58030C}"/>
   </bookViews>
@@ -36,6 +36,67 @@
     <author>Kevin</author>
   </authors>
   <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{EAFB7170-555E-4F97-928D-6D9477E38A3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kevin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 or 1
+meaning SUCCESS or FAILURE
+on data collection (failure if sensor doesn't exist in the device)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kevin</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{72BEF4D4-A7CA-4085-A347-3226520043D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kevin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+AS THE DEVELOPER'S REFERENCE DURING IMPLEMENTATION. (MORE DETAILS IN PROJECT IN GITHUB)
+NOT NEEDED FOR RESEARCH PURPOSES</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{CBD14D27-885B-46F1-9BA9-141130B0B543}">
       <text>
         <r>
@@ -1274,7 +1335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="107">
   <si>
     <t>1 byte</t>
   </si>
@@ -1291,54 +1352,6 @@
     <t>5 byte</t>
   </si>
   <si>
-    <t>6 byte</t>
-  </si>
-  <si>
-    <t>7 byte</t>
-  </si>
-  <si>
-    <t>8 byte</t>
-  </si>
-  <si>
-    <t>9 byte</t>
-  </si>
-  <si>
-    <t>10 byte</t>
-  </si>
-  <si>
-    <t>11 byte</t>
-  </si>
-  <si>
-    <t>12 byte</t>
-  </si>
-  <si>
-    <t>13 byte</t>
-  </si>
-  <si>
-    <t>14 byte</t>
-  </si>
-  <si>
-    <t>15 byte</t>
-  </si>
-  <si>
-    <t>16 byte</t>
-  </si>
-  <si>
-    <t>17 byte</t>
-  </si>
-  <si>
-    <t>18 byte</t>
-  </si>
-  <si>
-    <t>19 byte</t>
-  </si>
-  <si>
-    <t>20 byte</t>
-  </si>
-  <si>
-    <t>sample request (by smartphone)</t>
-  </si>
-  <si>
     <t>sensor</t>
   </si>
   <si>
@@ -1348,15 +1361,9 @@
     <t>duration</t>
   </si>
   <si>
-    <t>sample result (by IoT)</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -1627,14 +1634,35 @@
     <t xml:space="preserve">                wr = WEARABLE</t>
   </si>
   <si>
-    <t>packet name</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>data values</t>
+  </si>
+  <si>
+    <t>sensor_ID</t>
+  </si>
+  <si>
+    <t>PACKET NAME</t>
+  </si>
+  <si>
+    <t>Sample request by smartphone</t>
+  </si>
+  <si>
+    <t>Sample response by wearable devices</t>
+  </si>
+  <si>
+    <t>PACKET CONTENT (EACH BYTE WITH CORRESPONDING SEQUENCE)</t>
+  </si>
+  <si>
+    <t>SENSOR LISTENER CATEGORY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,6 +1703,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1696,7 +1737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1756,17 +1797,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1781,58 +1811,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,30 +1842,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,72 +1876,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="ÐÐ°ÑÑÐ¸Ð½ÐºÐ¸ Ð¿Ð¾ Ð·Ð°Ð¿ÑÐ¾ÑÑ azimuth pitch roll">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B10D43D4-4172-4561-988F-6C2798BDECD3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13496925" y="914400"/>
-          <a:ext cx="6400800" cy="4057650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2251,225 +2174,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD6900-772F-46B4-91F8-5954E44A3ECB}">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD6900-772F-46B4-91F8-5954E44A3ECB}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G2" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>95</v>
+      <c r="D4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025AC023-3322-4D9E-A4BB-A83DD4B4D7A5}">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,1858 +2296,1595 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <f>ROW()/2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+        <v>77</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <f>ROW()/2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="24"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+        <v>77</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <f>ROW()/2</f>
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>29</v>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="24"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="24"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+        <v>77</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <f>ROW()/2</f>
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="24"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="24"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+        <v>77</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <f>ROW()/2</f>
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="24"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="24"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <f>ROW()/2</f>
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="24"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="24"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+        <v>77</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <f>ROW()/2</f>
         <v>7</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>29</v>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="24"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="24"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+        <v>77</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <f>ROW()/2</f>
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>97</v>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="24"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="24"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+        <v>77</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <f>ROW()/2</f>
         <v>9</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>62</v>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="24"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="24"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+        <v>77</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f>ROW()/2</f>
         <v>10</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>63</v>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="24"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="24"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+        <v>77</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <f>ROW()/2</f>
         <v>11</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>64</v>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="24"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="24"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+        <v>77</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <f>ROW()/2</f>
         <v>12</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="24"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="24"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+        <v>77</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <f>ROW()/2</f>
         <v>13</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>66</v>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="24"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="27"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+        <v>77</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <f>ROW()/2</f>
         <v>14</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <f>ROW()/2</f>
         <v>15</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>60</v>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+        <v>77</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <f>ROW()/2</f>
         <v>16</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>68</v>
+      <c r="B32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="8">
         <f>ROW()/2</f>
         <v>17</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>69</v>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="8">
         <f>ROW()/2</f>
         <v>18</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>72</v>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="8">
         <f>ROW()/2</f>
         <v>19</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>84</v>
+      <c r="B38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="8">
         <f>ROW()/2</f>
         <v>20</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>56</v>
+      <c r="B40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="8">
         <f>ROW()/2</f>
         <v>21</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>56</v>
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="8">
         <f>ROW()/2</f>
         <v>22</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>76</v>
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="15"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="8">
         <f>ROW()/2</f>
         <v>23</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="7" t="s">
+      <c r="B46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="9"/>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="15"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="8">
         <f>ROW()/2</f>
         <v>24</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>94</v>
+      <c r="B48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4338,242 +3892,240 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>99</v>
+      <c r="J48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="15"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="8">
         <f>ROW()/2</f>
         <v>25</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>54</v>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K50" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="15"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="8">
         <f>ROW()/2</f>
         <v>26</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>55</v>
+      <c r="B52" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K52" s="9"/>
+        <v>77</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="15"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="8">
         <f>ROW()/2</f>
         <v>27</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>114</v>
+      <c r="B54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="16"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A55" s="9"/>
+      <c r="B55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="16"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>115</v>
+      <c r="B57" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
-        <v>116</v>
+      <c r="B58" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N4:S5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pck&Dat_structure.xlsx
+++ b/Pck&Dat_structure.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\New folder\SAST_Packet_Data_Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/SAST_Packet_Data_Structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B44FCC-6C15-4E7F-BB3D-EF250BAFA2CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29485A26-6797-D645-ABB9-884C92FC37D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" activeTab="1" xr2:uid="{FB7FCD3F-45BE-4329-BB36-20021F58030C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{FB7FCD3F-45BE-4329-BB36-20021F58030C}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet Structures" sheetId="1" r:id="rId1"/>
     <sheet name="Sensor Data Contents" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Kevin:</t>
         </r>
@@ -53,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 0 or 1
@@ -78,22 +79,50 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Kevin:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-AS THE DEVELOPER'S REFERENCE DURING IMPLEMENTATION. (MORE DETAILS IN PROJECT IN GITHUB)
-NOT NEEDED FOR RESEARCH PURPOSES</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AS THE DEVELOPER'S REFERENCE DURING IMPLEMENTATION. (MORE DETAILS IN PROJECT IN GITHUB)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NOT NEEDED FOR RESEARCH PURPOSES</t>
         </r>
       </text>
     </comment>
@@ -157,7 +186,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -167,14 +196,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-m/s**2 (-19.6~19.6)
-device delta motions through Z axis</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">m/s**2 (-19.6~19.6)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>device delta motions through Z axis</t>
         </r>
       </text>
     </comment>
@@ -238,7 +298,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -248,14 +308,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-m/s**2 (-9.8~9.8)
-Z vector of gravity</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">m/s**2 (-9.8~9.8)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Z vector of gravity</t>
         </r>
       </text>
     </comment>
@@ -319,7 +410,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -329,14 +420,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-m/s**2 (-19.6~19.6)
-Z vector acceleration</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">m/s**2 (-19.6~19.6)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Z vector acceleration</t>
         </r>
       </text>
     </comment>
@@ -400,7 +522,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -410,14 +532,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-m/s**2 (-19.6~19.6)
-Z vector of magnetic field vector</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">m/s**2 (-19.6~19.6)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Z vector of magnetic field vector</t>
         </r>
       </text>
     </comment>
@@ -427,7 +580,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -437,15 +590,67 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-inputs: angle &amp; axis (accelerometer, gyroscope, magnetic sensor)
-XYZW = -1~1
-orientation of the device as a combination of an angle and XYZ axis, in which the device has rotated through a specific angle around an axis (X, Y, or Z)</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">inputs: angle &amp; axis (accelerometer, gyroscope, magnetic sensor)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">XYZW = -1~1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>orientation of the device as a combination of an angle and XYZ axis, in which the device has rotated through a specific angle around an axis (X, Y, or Z)</t>
         </r>
       </text>
     </comment>
@@ -535,7 +740,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -545,14 +750,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-degrees
--90 ~ 90</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">degrees
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>-90 ~ 90</t>
         </r>
       </text>
     </comment>
@@ -618,7 +854,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -628,15 +864,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-degrees/s
--573 ~ 573
-angular velocity around Z axis</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">degrees/s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">-573 ~ 573
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>angular velocity around Z axis</t>
         </r>
       </text>
     </comment>
@@ -646,7 +912,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -656,15 +922,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Lux
-0~45875
-lightness of the environment</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Lux
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~45875
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>lightness of the environment</t>
         </r>
       </text>
     </comment>
@@ -674,7 +970,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -684,14 +980,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-no range
-nearby objects proximity to the sensor</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">no range
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>nearby objects proximity to the sensor</t>
         </r>
       </text>
     </comment>
@@ -701,7 +1017,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -711,15 +1027,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-hPa (hectopascals)
-260~1260
-pressure of the atmospheric environment</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">hPa (hectopascals)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">260~1260
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>pressure of the atmospheric environment</t>
         </r>
       </text>
     </comment>
@@ -729,7 +1075,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -739,15 +1085,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-UV index
-0~15
-uv rays measurement that device is exposed to</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">UV index
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>uv rays measurement that device is exposed to</t>
         </r>
       </text>
     </comment>
@@ -757,7 +1133,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -767,15 +1143,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-C (celsius)
--30~100
-temperature of the environment</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">C (celsius)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">-30~100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>temperature of the environment</t>
         </r>
       </text>
     </comment>
@@ -785,7 +1191,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -795,15 +1201,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-% (percentage)
-0~100
-air humidity percentage</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">% (percentage)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>air humidity percentage</t>
         </r>
       </text>
     </comment>
@@ -813,7 +1249,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -823,14 +1259,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-0~240
-real time heartbeats per minute</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~240
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>real time heartbeats per minute</t>
         </r>
       </text>
     </comment>
@@ -840,7 +1296,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -850,14 +1306,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-0~1081216
-green light that is reflected back from person's blood vessel</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~1081216
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>green light that is reflected back from person's blood vessel</t>
         </r>
       </text>
     </comment>
@@ -867,7 +1343,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -877,14 +1353,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-0~1081216
-infrared light that is reflected back from person's blood vessel</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~1081216
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>infrared light that is reflected back from person's blood vessel</t>
         </r>
       </text>
     </comment>
@@ -894,7 +1390,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -904,14 +1400,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-0~1081216
-red light that is reflected back from person's blood vessel</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">0~1081216
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>red light that is reflected back from person's blood vessel</t>
         </r>
       </text>
     </comment>
@@ -921,7 +1437,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -931,15 +1447,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Degrees/s
--573~573
-sw+hw modification to gyroscope (very sensitive)</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Degrees/s
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">-573~573
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>sw+hw modification to gyroscope (very sensitive)</t>
         </r>
       </text>
     </comment>
@@ -949,7 +1495,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -959,14 +1505,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-uT (microteslas)
-Similar in functionality to a magnetic sensor, but does not perform hard iron calibration.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">uT (microteslas)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Similar in functionality to a magnetic sensor, but does not perform hard iron calibration.</t>
         </r>
       </text>
     </comment>
@@ -976,7 +1553,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -986,14 +1563,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
--1~1
-accelerometer + gyroscope =&gt; orientation</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">-1~1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>accelerometer + gyroscope =&gt; orientation</t>
         </r>
       </text>
     </comment>
@@ -1003,7 +1600,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -1013,14 +1610,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
--1~1
-combination of an angle and an axis on which the device has rotated through a specific angle around an axis (X, Y, or Z)</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">-1~1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>combination of an angle and an axis on which the device has rotated through a specific angle around an axis (X, Y, or Z)</t>
         </r>
       </text>
     </comment>
@@ -1030,7 +1647,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -1040,13 +1657,23 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-detects when there is significant movement causing changes in the user location, for example, when the user is walking, biking, or in a moving vehicle</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>detects when there is significant movement causing changes in the user location, for example, when the user is walking, biking, or in a moving vehicle</t>
         </r>
       </text>
     </comment>
@@ -1252,7 +1879,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -1262,16 +1889,56 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-SENSOR_PEDOMETER_STATE_UNKNOWN
- SENSOR_PEDOMETER_STATE_STOP
- SENSOR_PEDOMETER_STATE_WALK
- SENSOR_PEDOMETER_STATE_RUN</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">SENSOR_PEDOMETER_STATE_UNKNOWN
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> SENSOR_PEDOMETER_STATE_STOP
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> SENSOR_PEDOMETER_STATE_WALK
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> SENSOR_PEDOMETER_STATE_RUN</t>
         </r>
       </text>
     </comment>
@@ -1281,7 +1948,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -1291,15 +1958,45 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-SENSOR_SLEEP_STATE_UNKNOWN
- SENSOR_SLEEP_STATE_WAKE
- SENSOR_SLEEP_STATE_SLEEP</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">SENSOR_SLEEP_STATE_UNKNOWN
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> SENSOR_SLEEP_STATE_WAKE
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"> SENSOR_SLEEP_STATE_SLEEP</t>
         </r>
       </text>
     </comment>
@@ -1309,7 +2006,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
@@ -1319,14 +2016,34 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-1.0, -1.0
-whether step was detected or not</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">1.0, -1.0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>whether step was detected or not</t>
         </r>
       </text>
     </comment>
@@ -1335,7 +2052,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="118">
   <si>
     <t>1 byte</t>
   </si>
@@ -1598,27 +2315,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>sm + wr</t>
-  </si>
-  <si>
-    <t>wr</t>
-  </si>
-  <si>
-    <t>wr + sm (RELATIVE_HUMIDITY)</t>
-  </si>
-  <si>
-    <t>wr + sm (STEP_COUNTER)</t>
-  </si>
-  <si>
-    <t>sm</t>
-  </si>
-  <si>
-    <t>wr + sm(or AMBIENT_TEMPERATURE)</t>
-  </si>
-  <si>
-    <t>wr + sm(GAME_ROTATION_VECTOR)</t>
-  </si>
-  <si>
     <t>Sensor &amp; Source</t>
   </si>
   <si>
@@ -1628,12 +2324,6 @@
     <t>Step |not|detected</t>
   </si>
   <si>
-    <t>NOTE:         sm = SMARTPHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                wr = WEARABLE</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -1656,13 +2346,73 @@
   </si>
   <si>
     <t>SENSOR LISTENER CATEGORY</t>
+  </si>
+  <si>
+    <t>APP_USAGE</t>
+  </si>
+  <si>
+    <t>MESSAGES</t>
+  </si>
+  <si>
+    <t>CALL_LOG</t>
+  </si>
+  <si>
+    <t>MICROPHONE</t>
+  </si>
+  <si>
+    <t>NETWORK_STATE</t>
+  </si>
+  <si>
+    <t>WIFI_STATE</t>
+  </si>
+  <si>
+    <t>CALENDAR</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>CONTACTS</t>
+  </si>
+  <si>
+    <t>STORAGE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>source: smartphone + wearable</t>
+  </si>
+  <si>
+    <t>source: smartphone(AMBIENT_TEMPERATURE) + wearable</t>
+  </si>
+  <si>
+    <t>source: smartphone(RELATIVE_HUMIDITY) + wearable</t>
+  </si>
+  <si>
+    <t>source: smartphone(GAME_ROTATION_VECTOR) + wearable</t>
+  </si>
+  <si>
+    <t>source: smartphone(STEP_COUNTER) + wearable</t>
+  </si>
+  <si>
+    <t>source: wearable</t>
+  </si>
+  <si>
+    <t>source: smarphone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,14 +2457,50 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1737,7 +2523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1811,11 +2597,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1835,14 +2630,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,13 +2656,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2181,94 +2988,94 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>99</v>
+      <c r="D4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2282,29 +3089,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025AC023-3322-4D9E-A4BB-A83DD4B4D7A5}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>59</v>
@@ -2330,12 +3137,12 @@
       <c r="J1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="K1" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <f>ROW()/2</f>
         <v>1</v>
       </c>
@@ -2366,14 +3173,14 @@
       <c r="J2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -2399,10 +3206,10 @@
       <c r="J3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <f>ROW()/2</f>
         <v>2</v>
       </c>
@@ -2433,14 +3240,14 @@
       <c r="J4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -2466,10 +3273,10 @@
       <c r="J5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <f>ROW()/2</f>
         <v>3</v>
       </c>
@@ -2500,14 +3307,14 @@
       <c r="J6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -2533,10 +3340,10 @@
       <c r="J7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <f>ROW()/2</f>
         <v>4</v>
       </c>
@@ -2567,14 +3374,14 @@
       <c r="J8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -2600,10 +3407,10 @@
       <c r="J9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <f>ROW()/2</f>
         <v>5</v>
       </c>
@@ -2634,14 +3441,14 @@
       <c r="J10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2667,10 +3474,10 @@
       <c r="J11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <f>ROW()/2</f>
         <v>6</v>
       </c>
@@ -2701,14 +3508,14 @@
       <c r="J12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -2734,10 +3541,10 @@
       <c r="J13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <f>ROW()/2</f>
         <v>7</v>
       </c>
@@ -2768,14 +3575,14 @@
       <c r="J14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2801,10 +3608,10 @@
       <c r="J15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <f>ROW()/2</f>
         <v>8</v>
       </c>
@@ -2835,14 +3642,14 @@
       <c r="J16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2868,10 +3675,10 @@
       <c r="J17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <f>ROW()/2</f>
         <v>9</v>
       </c>
@@ -2902,14 +3709,14 @@
       <c r="J18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -2935,10 +3742,10 @@
       <c r="J19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <f>ROW()/2</f>
         <v>10</v>
       </c>
@@ -2969,14 +3776,14 @@
       <c r="J20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -3002,10 +3809,10 @@
       <c r="J21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <f>ROW()/2</f>
         <v>11</v>
       </c>
@@ -3036,14 +3843,14 @@
       <c r="J22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
       <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -3069,10 +3876,10 @@
       <c r="J23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
         <f>ROW()/2</f>
         <v>12</v>
       </c>
@@ -3103,14 +3910,14 @@
       <c r="J24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -3136,10 +3943,10 @@
       <c r="J25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
         <f>ROW()/2</f>
         <v>13</v>
       </c>
@@ -3170,14 +3977,14 @@
       <c r="J26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -3203,10 +4010,10 @@
       <c r="J27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
         <f>ROW()/2</f>
         <v>14</v>
       </c>
@@ -3237,14 +4044,14 @@
       <c r="J28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>43</v>
@@ -3270,10 +4077,10 @@
       <c r="J29" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
         <f>ROW()/2</f>
         <v>15</v>
       </c>
@@ -3304,14 +4111,14 @@
       <c r="J30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
       <c r="B31" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -3337,10 +4144,10 @@
       <c r="J31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
         <f>ROW()/2</f>
         <v>16</v>
       </c>
@@ -3371,14 +4178,14 @@
       <c r="J32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>43</v>
@@ -3404,10 +4211,10 @@
       <c r="J33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
         <f>ROW()/2</f>
         <v>17</v>
       </c>
@@ -3438,14 +4245,14 @@
       <c r="J34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
       <c r="B35" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>43</v>
@@ -3471,10 +4278,10 @@
       <c r="J35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
         <f>ROW()/2</f>
         <v>18</v>
       </c>
@@ -3505,14 +4312,14 @@
       <c r="J36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>55</v>
@@ -3538,10 +4345,10 @@
       <c r="J37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
         <f>ROW()/2</f>
         <v>19</v>
       </c>
@@ -3572,14 +4379,14 @@
       <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
       <c r="B39" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>55</v>
@@ -3605,10 +4412,10 @@
       <c r="J39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
         <f>ROW()/2</f>
         <v>20</v>
       </c>
@@ -3639,14 +4446,14 @@
       <c r="J40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
       <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -3672,10 +4479,10 @@
       <c r="J41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
         <f>ROW()/2</f>
         <v>21</v>
       </c>
@@ -3706,14 +4513,14 @@
       <c r="J42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K42" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
       <c r="B43" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -3739,10 +4546,10 @@
       <c r="J43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <f>ROW()/2</f>
         <v>22</v>
       </c>
@@ -3773,14 +4580,14 @@
       <c r="J44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
       <c r="B45" s="6" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -3806,10 +4613,10 @@
       <c r="J45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <f>ROW()/2</f>
         <v>23</v>
       </c>
@@ -3840,14 +4647,14 @@
       <c r="J46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="K46" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
       <c r="B47" s="6" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>43</v>
@@ -3873,10 +4680,10 @@
       <c r="J47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <f>ROW()/2</f>
         <v>24</v>
       </c>
@@ -3895,14 +4702,14 @@
       <c r="J48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K48" s="15" t="s">
+      <c r="K48" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
       <c r="B49" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>43</v>
@@ -3916,10 +4723,10 @@
       <c r="J49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
         <f>ROW()/2</f>
         <v>25</v>
       </c>
@@ -3950,12 +4757,12 @@
       <c r="J50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
       <c r="B51" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>77</v>
@@ -3981,10 +4788,10 @@
       <c r="J51" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
         <f>ROW()/2</f>
         <v>26</v>
       </c>
@@ -4015,12 +4822,12 @@
       <c r="J52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
       <c r="B53" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>77</v>
@@ -4046,18 +4853,18 @@
       <c r="J53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
         <f>ROW()/2</f>
         <v>27</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>77</v>
@@ -4080,50 +4887,442 @@
       <c r="J54" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
+      <c r="B55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="D55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>28</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C56" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>29</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>30</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>31</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
+      <c r="B63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>32</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="13"/>
+      <c r="B65" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>33</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <v>34</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="13"/>
+      <c r="B69" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>35</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <v>36</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>37</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="C61:J61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
